--- a/example/batchConvert/$tables.xlsx
+++ b/example/batchConvert/$tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D7B079-069A-F149-8A7D-43126955C7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B8C2D-C30E-AD40-B2FE-FD05A4EDA1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2300" windowWidth="27700" windowHeight="16860" xr2:uid="{89FDA258-6872-FE40-AC0D-7BDF8BC8DEC7}"/>
+    <workbookView xWindow="4200" yWindow="2300" windowWidth="27700" windowHeight="16860" activeTab="1" xr2:uid="{89FDA258-6872-FE40-AC0D-7BDF8BC8DEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>censoredFiled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>constField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>批量打表时，只有配置在这张表且文件夹中存在的表才会打</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +124,14 @@
   </si>
   <si>
     <t>表中的指定字段和数据作为常量 [{"key":"","value":"","desc":""},{"key":"","value":"","desc:"""},...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constFields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>censoredFields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22580904-9B8E-6746-AACC-FD6B519A2E15}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -555,13 +555,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -580,13 +580,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8025D9EE-42C4-AD4B-96B1-32C1C2D345CC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -634,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -648,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -656,13 +656,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -670,13 +670,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -684,13 +684,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/example/batchConvert/$tables.xlsx
+++ b/example/batchConvert/$tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Tool\xlsx-fbs\example\batchConvert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B8C2D-C30E-AD40-B2FE-FD05A4EDA1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18D257C-3887-4C77-A993-147832FE3B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2300" windowWidth="27700" windowHeight="16860" activeTab="1" xr2:uid="{89FDA258-6872-FE40-AC0D-7BDF8BC8DEC7}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="46080" windowHeight="12120" xr2:uid="{89FDA258-6872-FE40-AC0D-7BDF8BC8DEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lowerProb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eventDrop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>censoredFields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyLimit,lowerProb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -521,16 +521,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22580904-9B8E-6746-AACC-FD6B519A2E15}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="6" max="6" width="43.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -561,32 +561,32 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -599,17 +599,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8025D9EE-42C4-AD4B-96B1-32C1C2D345CC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="55.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -637,7 +637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -651,12 +651,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -665,12 +665,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -679,18 +679,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/example/batchConvert/$tables.xlsx
+++ b/example/batchConvert/$tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Tool\xlsx-fbs\example\batchConvert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18D257C-3887-4C77-A993-147832FE3B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4712E3-6E6A-BA42-BFE9-49C9A2922F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="46080" windowHeight="12120" xr2:uid="{89FDA258-6872-FE40-AC0D-7BDF8BC8DEC7}"/>
+    <workbookView xWindow="0" yWindow="2300" windowWidth="38400" windowHeight="12120" xr2:uid="{89FDA258-6872-FE40-AC0D-7BDF8BC8DEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,13 +133,20 @@
   <si>
     <t>dailyLimit,lowerProb</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemWired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerProb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,18 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22580904-9B8E-6746-AACC-FD6B519A2E15}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="6" max="6" width="43.81640625" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,7 +571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -575,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -587,6 +594,17 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -603,13 +621,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="6" max="6" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -637,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -651,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -665,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -679,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>

--- a/example/batchConvert/$tables.xlsx
+++ b/example/batchConvert/$tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4712E3-6E6A-BA42-BFE9-49C9A2922F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD64BFA-00C7-C24C-82FB-372DD77A511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="38400" windowHeight="12120" xr2:uid="{89FDA258-6872-FE40-AC0D-7BDF8BC8DEC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>lowerProb</t>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22580904-9B8E-6746-AACC-FD6B519A2E15}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -605,6 +609,14 @@
       </c>
       <c r="E5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
